--- a/config_5.18/shoping_config.xlsx
+++ b/config_5.18/shoping_config.xlsx
@@ -5741,34 +5741,34 @@
     <t>"jing_bi","prop_gold_hammer_3"</t>
   </si>
   <si>
-    <t>9980万金币,"300万小游戏币","铁锹*5"</t>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
   </si>
   <si>
-    <t>4980万金币,"150万小游戏币","铁锹*2"</t>
-  </si>
-  <si>
-    <t>2980万金币,"90万小游戏币","阳光*12"</t>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
   </si>
   <si>
-    <t>1980万金币,"60万小游戏币","阳光*8"</t>
-  </si>
-  <si>
-    <t>980万金币,"30万小游戏币","阳光*5"</t>
-  </si>
-  <si>
-    <t>480万金币,"15万小游戏币","水滴*8"</t>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
   </si>
   <si>
-    <t>180万金币,"10万小游戏币","水滴*5"</t>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6646,9 +6646,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6696,16 +6696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6713,6 +6706,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6727,38 +6742,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6779,31 +6781,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6826,19 +6819,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6943,7 +6943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6955,7 +6961,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6967,25 +6991,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6997,61 +7021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,13 +7039,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7088,12 +7094,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,15 +7133,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7159,11 +7150,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7171,8 +7160,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7209,8 +7198,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7230,6 +7221,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7238,10 +7238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7250,109 +7250,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7361,22 +7361,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13570,11 +13570,11 @@
   <dimension ref="A1:AN634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H619" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W619" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I640" sqref="I640"/>
+      <selection pane="bottomRight" activeCell="Z640" sqref="Z640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
